--- a/biology/Botanique/Allium_cuthbertii/Allium_cuthbertii.xlsx
+++ b/biology/Botanique/Allium_cuthbertii/Allium_cuthbertii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium cuthbertii, nom commun ail strié ou oignon de Cuthbert, est une espèce de plante herbacée vivace originaire du sud-est des États-Unis. On le trouve à des altitudes inférieures à 300 m en Alabama, Géorgie, Nord et Caroline du Sud, et au nord-est de la Floride[2],[3],[4].L'oignon de Cuthbert est plus tolérant à la chaleur que l'oignon penché et pousse dans des sols pauvres et rocheux ou des sols bien drainés en plein soleil ou à mi-ombre[5].
-Allium cuthbertii produit des bulbes ovoïdes généralement solitaires pouvant atteindre 2 cm de long. Les hampes florales sont de sections rondes, triangulaires ou carrées et atteignent 40cm de haut. Les feuilles sont persistantes, flétrissant à l'anthèse, engainantes ; les limbes, solide, plat, linéaires, de 12–35 cm × 3–6 mm, à bords entiers ou denticulés. Les fleurs mesurent environ 8 mm de diamètre, sont blanches, roses ou violettes ; anthères et pollen jaunes[2],[6],[7]. La dloraison a lieu de mai au début juin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium cuthbertii, nom commun ail strié ou oignon de Cuthbert, est une espèce de plante herbacée vivace originaire du sud-est des États-Unis. On le trouve à des altitudes inférieures à 300 m en Alabama, Géorgie, Nord et Caroline du Sud, et au nord-est de la Floride.L'oignon de Cuthbert est plus tolérant à la chaleur que l'oignon penché et pousse dans des sols pauvres et rocheux ou des sols bien drainés en plein soleil ou à mi-ombre.
+Allium cuthbertii produit des bulbes ovoïdes généralement solitaires pouvant atteindre 2 cm de long. Les hampes florales sont de sections rondes, triangulaires ou carrées et atteignent 40cm de haut. Les feuilles sont persistantes, flétrissant à l'anthèse, engainantes ; les limbes, solide, plat, linéaires, de 12–35 cm × 3–6 mm, à bords entiers ou denticulés. Les fleurs mesurent environ 8 mm de diamètre, sont blanches, roses ou violettes ; anthères et pollen jaunes. La dloraison a lieu de mai au début juin.
 </t>
         </is>
       </c>
